--- a/Question_Set2/Software skills/Windows Server Administration.xlsx
+++ b/Question_Set2/Software skills/Windows Server Administration.xlsx
@@ -16,23 +16,58 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>questions = [{'title': 'As administrator of your company’s Active Directory domain, a user reports that they are unable to log into a computer that has been turned off for over three months. After learning this, you also try logging into this computer as an administrator and receive an error message that authentication has failed. What actions should you take to allow users to log into this computer?', 'ques_type': 2, 'options': ['Reset the computer account, then disjoin and rejoin the computer to the domain.', 'Reset the trust relationship between the domain controller and the computer using the netdom command.', 'Modify the network configuration of the computer using the netsh command with the machine option.', 'Disable the user and admin accounts, then re-enable them.'], 'score': 'Reset the computer account, then disjoin and rejoin the computer to the domain.'}, {'title': 'As administrator of your company’s network, you must monitor failed workstation login attempts in your company. Your manager asks you to find a list of invalid login attempts for an external audit.Which of the following event logs should you use to retrieve invalid logins to devices on the network?', 'ques_type': 2, 'options': ['Application log', 'System log', 'Security log', 'Services log'], 'score': 'Security log'}, {'title': 'Your company works with partner organizations (other companies) who must frequently access shared applications on your extranet. You want to allow partner organization employees to access your extranet’s website using only the credentials of their own company’s directory services.What strategy should you use to allow for this functionality?', 'ques_type': 2, 'options': ['Create (or replicate) the accounts of the partner organization’s employees on your company’s active directory.', 'Implement the Active Directory Advanced Integration Services (AD AIS) role on the domain controller.', 'Implement the Active Directory Lightweight Directory Services (AD LDS) role on the domain controller.', 'Implement single sign-on capabilities by creating a trust relationship between these partner organizations and your extranet.'], 'score': 'Implement single sign-on capabilities by creating a trust relationship between these partner organizations and your extranet.'}, {'title': 'True or false: PowerShell commands can run on local or remote computers and return all output from commands, including errors.', 'ques_type': 11, 'options': ['true', 'false'], 'score': 'True'}]</t>
+    <t>questions = [
+    {
+        "title": "As administrator of your company\u2019s Active Directory domain, a user reports that they are unable to log into a computer that has been turned off for over three months. After learning this, you also try logging into this computer as an administrator and receive an error message that authentication has failed. What actions should you take to allow users to log into this computer?",
+        "ques_type": 2,
+        "options": [
+            "Reset the computer account, then disjoin and rejoin the computer to the domain.",
+            "Reset the trust relationship between the domain controller and the computer using the netdom command.",
+            "Modify the network configuration of the computer using the netsh command with the machine option.",
+            "Disable the user and admin accounts, then re-enable them."
+        ],
+        "score": "Reset the computer account, then disjoin and rejoin the computer to the domain."
+    },
+    {
+        "title": "As administrator of your company\u2019s network, you must monitor failed workstation login attempts in your company. Your manager asks you to find a list of invalid login attempts for an external audit.Which of the following event logs should you use to retrieve invalid logins to devices on the network?",
+        "ques_type": 2,
+        "options": [
+            "Application log",
+            "System log",
+            "Security log",
+            "Services log"
+        ],
+        "score": "Security log"
+    },
+    {
+        "title": "Your company works with partner organizations (other companies) who must frequently access shared applications on your extranet. You want to allow partner organization employees to access your extranet\u2019s website using only the credentials of their own company\u2019s directory services.What strategy should you use to allow for this functionality?",
+        "ques_type": 2,
+        "options": [
+            "Create (or replicate) the accounts of the partner organization\u2019s employees on your company\u2019s active directory.",
+            "Implement the Active Directory Advanced Integration Services (AD AIS) role on the domain controller.",
+            "Implement the Active Directory Lightweight Directory Services (AD LDS) role on the domain controller.",
+            "Implement single sign-on capabilities by creating a trust relationship between these partner organizations and your extranet."
+        ],
+        "score": "Implement single sign-on capabilities by creating a trust relationship between these partner organizations and your extranet."
+    },
+    {
+        "title": "True or false: PowerShell commands can run on local or remote computers and return all output from commands, including errors.",
+        "ques_type": 11,
+        "options": [
+            "true",
+            "false"
+        ],
+        "score": "True"
+    }
+]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -48,7 +83,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -56,30 +91,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,19 +391,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
